--- a/graphs-wordle.xlsx
+++ b/graphs-wordle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucin\Desktop\wordle-optimization-GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B323A2-F25C-4DC5-B210-632EC1DEC77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B8CFB4-F845-4BA1-B78B-6574D6BE1702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A3BDDEA1-63C4-4C31-AC71-3CE48A408F14}"/>
   </bookViews>
@@ -102,11 +102,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -286,16 +286,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4989200863930883E-2</c:v>
+                  <c:v>3.3693304535637146E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52958963282937366</c:v>
+                  <c:v>0.52872570194384449</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41468682505399568</c:v>
+                  <c:v>0.42030237580993518</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0734341252699785E-2</c:v>
+                  <c:v>1.7278617710583154E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -395,19 +395,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4859611231101509E-2</c:v>
+                  <c:v>5.2267818574514041E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46479481641468684</c:v>
+                  <c:v>0.45917926565874728</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40907127429805618</c:v>
+                  <c:v>0.42591792656587474</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2634989200863925E-2</c:v>
+                  <c:v>5.5723542116630671E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.34341252699784E-3</c:v>
+                  <c:v>6.0475161987041037E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -760,13 +760,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4989200863930883E-2</c:v>
+                  <c:v>3.3693304535637146E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56457883369330453</c:v>
+                  <c:v>0.56241900647948162</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97926565874730021</c:v>
+                  <c:v>0.98272138228941686</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -869,19 +869,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4859611231101509E-2</c:v>
+                  <c:v>5.2267818574514041E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51965442764578829</c:v>
+                  <c:v>0.51144708423326135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92872570194384452</c:v>
+                  <c:v>0.93736501079913603</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99136069114470837</c:v>
+                  <c:v>0.9930885529157667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99870410367170626</c:v>
+                  <c:v>0.99913606911447084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2602,7 +2602,7 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2641,11 +2641,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <f t="shared" ref="G2:H7" si="0">C2/2315</f>
         <v>0</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2656,18 +2656,18 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D3">
-        <v>127</v>
-      </c>
-      <c r="G3" s="4">
+        <v>121</v>
+      </c>
+      <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>3.4989200863930883E-2</v>
-      </c>
-      <c r="H3" s="4">
+        <v>3.3693304535637146E-2</v>
+      </c>
+      <c r="H3" s="3">
         <f t="shared" si="0"/>
-        <v>5.4859611231101509E-2</v>
+        <v>5.2267818574514041E-2</v>
       </c>
       <c r="I3" s="2"/>
       <c r="AJ3">
@@ -2679,18 +2679,18 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D4">
-        <v>1076</v>
-      </c>
-      <c r="G4" s="4">
+        <v>1063</v>
+      </c>
+      <c r="G4" s="3">
         <f t="shared" si="0"/>
-        <v>0.52958963282937366</v>
-      </c>
-      <c r="H4" s="4">
+        <v>0.52872570194384449</v>
+      </c>
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
-        <v>0.46479481641468684</v>
+        <v>0.45917926565874728</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -2699,18 +2699,18 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>960</v>
+        <v>973</v>
       </c>
       <c r="D5">
-        <v>947</v>
-      </c>
-      <c r="G5" s="4">
+        <v>986</v>
+      </c>
+      <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>0.41468682505399568</v>
-      </c>
-      <c r="H5" s="4">
+        <v>0.42030237580993518</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>0.40907127429805618</v>
+        <v>0.42591792656587474</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -2719,18 +2719,18 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>145</v>
-      </c>
-      <c r="G6" s="4">
+        <v>129</v>
+      </c>
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>2.0734341252699785E-2</v>
-      </c>
-      <c r="H6" s="4">
+        <v>1.7278617710583154E-2</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>6.2634989200863925E-2</v>
+        <v>5.5723542116630671E-2</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -2742,15 +2742,15 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>7.34341252699784E-3</v>
+        <v>6.0475161987041037E-3</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
@@ -2783,11 +2783,11 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <f>C11/2315</f>
         <v>0</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <f>D11/2315</f>
         <v>0</v>
       </c>
@@ -2798,19 +2798,19 @@
       </c>
       <c r="C12">
         <f xml:space="preserve"> SUM(C2:C3)</f>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D12">
         <f xml:space="preserve"> SUM(D2:D3)</f>
-        <v>127</v>
-      </c>
-      <c r="G12" s="5">
+        <v>121</v>
+      </c>
+      <c r="G12" s="4">
         <f t="shared" ref="G12:H16" si="1">C12/2315</f>
-        <v>3.4989200863930883E-2</v>
-      </c>
-      <c r="H12" s="5">
+        <v>3.3693304535637146E-2</v>
+      </c>
+      <c r="H12" s="4">
         <f t="shared" si="1"/>
-        <v>5.4859611231101509E-2</v>
+        <v>5.2267818574514041E-2</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
@@ -2819,19 +2819,19 @@
       </c>
       <c r="C13">
         <f>SUM(C2:C4)</f>
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="D13">
         <f>SUM(D2:D4)</f>
-        <v>1203</v>
-      </c>
-      <c r="G13" s="5">
+        <v>1184</v>
+      </c>
+      <c r="G13" s="4">
         <f t="shared" si="1"/>
-        <v>0.56457883369330453</v>
-      </c>
-      <c r="H13" s="5">
+        <v>0.56241900647948162</v>
+      </c>
+      <c r="H13" s="4">
         <f t="shared" si="1"/>
-        <v>0.51965442764578829</v>
+        <v>0.51144708423326135</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -2841,19 +2841,19 @@
       </c>
       <c r="C14">
         <f>SUM(C2:C5)</f>
-        <v>2267</v>
+        <v>2275</v>
       </c>
       <c r="D14">
         <f>SUM(D2:D5)</f>
-        <v>2150</v>
-      </c>
-      <c r="G14" s="5">
+        <v>2170</v>
+      </c>
+      <c r="G14" s="4">
         <f t="shared" si="1"/>
-        <v>0.97926565874730021</v>
-      </c>
-      <c r="H14" s="5">
+        <v>0.98272138228941686</v>
+      </c>
+      <c r="H14" s="4">
         <f t="shared" si="1"/>
-        <v>0.92872570194384452</v>
+        <v>0.93736501079913603</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -2867,15 +2867,15 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D6)</f>
-        <v>2295</v>
-      </c>
-      <c r="G15" s="5">
+        <v>2299</v>
+      </c>
+      <c r="G15" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <f t="shared" si="1"/>
-        <v>0.99136069114470837</v>
+        <v>0.9930885529157667</v>
       </c>
       <c r="I15" s="1"/>
     </row>
@@ -2889,15 +2889,15 @@
       </c>
       <c r="D16">
         <f>SUM(D3:D7)</f>
-        <v>2312</v>
-      </c>
-      <c r="G16" s="5">
+        <v>2313</v>
+      </c>
+      <c r="G16" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <f t="shared" si="1"/>
-        <v>0.99870410367170626</v>
+        <v>0.99913606911447084</v>
       </c>
       <c r="I16" s="1"/>
     </row>
@@ -2910,10 +2910,10 @@
       <c r="I18" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
